--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>נושא אש</t>
   </si>
@@ -31,58 +31,208 @@
     <t>🤨</t>
   </si>
   <si>
-    <t>שאלה חזקה</t>
-  </si>
-  <si>
-    <t>שאלה טובה</t>
-  </si>
-  <si>
-    <t>קושיה</t>
-  </si>
-  <si>
-    <t>חומר למחשבה</t>
-  </si>
-  <si>
-    <t>סבבה</t>
-  </si>
-  <si>
-    <t>😎</t>
-  </si>
-  <si>
-    <t>חידה</t>
-  </si>
-  <si>
-    <t>מי היה</t>
-  </si>
-  <si>
-    <t>מה עשה</t>
-  </si>
-  <si>
-    <t>וואלק</t>
-  </si>
-  <si>
-    <t>שאלה</t>
-  </si>
-  <si>
-    <t>👏</t>
-  </si>
-  <si>
-    <t>מי הראשונה</t>
-  </si>
-  <si>
-    <t>איפה קרה</t>
-  </si>
-  <si>
-    <t>מתי הוקם</t>
-  </si>
-  <si>
-    <t>תמוה</t>
-  </si>
-  <si>
-    <t>מעניין</t>
-  </si>
-  <si>
-    <t>👩‍🚒🥹</t>
+    <t>בחור טוב מושפעות תסביכים בחורים טובים</t>
+  </si>
+  <si>
+    <t>בקיצור אנחנו יושבים אני ועוד שני חברים שלי טובים: אני, איציק זינו וציון מלכה יימח שמו זה שפתח עליי</t>
+  </si>
+  <si>
+    <t>"שו בידק? שו עמק!" 17 דקירות רק נותן בו נותן בו נותן בו נותן בו</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בקיצור בחור טוב אני יושב בכלא בבלגיה שמה יימח שמם כל האנטישמים רוצחים בדם קר מתפוצצים ברחובות
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בקיצור אני יושב, בא אליי הסוהר מדביק לי בוקס לפנים אני עושה לו "אחשלי מה עשיתי?"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אומר לי בגרמנית "you jewish" אתה יהודי אומר לי
+</t>
+    </r>
+  </si>
+  <si>
+    <t>חבר שלי קיבל את הזריקה הזאתי מעשן ככה לא יכול לעשן
+בן אדם מת בגוף של חי אתה שואל אותו מה קורה מה נשמע הכל בסדר לא עונה לך</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אתה במשפט מודה לא מודה מתנדנד בחור טוב
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אפרופו בחור טוב תשמעו סיפור
+</t>
+    </r>
+  </si>
+  <si>
+    <t>בקיצור רבי מורי פה שיחיה יעיד שהכל אמת ואמיתה שמיים יעידו בהן צדק נשבע לכם
+בקיצור אנחנו יושבים שולחן של מלכים פתחנו שם</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בקיצור בא אליי איזה אחד גורילה ערבי תופס אותי ידיים רגליים
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">עזוב אותי ידיים רגליים רק נותן בו עם הראש נותן בו נותן בו נותן בו נותן בו 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בקיצור אני יושב שמה יימח שמם הכל שם מחולק לתאים קילומטרים של תאים אסירים בתאים קילומטרים
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">שתיים רבים ביניהם
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני עזוב אותי שמה לא מפחד לא מעבריינים לא מגנגסטרים לא מאף אחד
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני יושב בורקס העגלה 4 לפנות בוקר צומת קריית אתא מי שמכיר מכיר
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">פתאום אני שומע "איה" אני עם התסביכים שלי איה חשבתי באו להוריד אותי
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני קם אני רואה איזה אחד ערבי צ'צ'ני ימח שמו בא אליי "שו בידק?"
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בקיצור אנחנו עשינו לערבים האלה משהו מיוחד
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני ברוך השם עברתי את הגיל הזה של המושפעות של התסביכים
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">ההוא אמר ככה ההוא עשה ככה צריך לעשות להוא ולקחת להוא
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני עזוב אותי בראש שקט ילד טוב ירושלים
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אני מפחד מזריקה אחת שקוראים לה מורגן הזריקה הזאתי רוצחת אותך ומשאירה אותך בגוף של בן אדם חי
+</t>
+    </r>
+  </si>
+  <si>
+    <t>זה לא משנה תעצור את זה אח שלי</t>
   </si>
 </sst>
 </file>
@@ -92,7 +242,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -113,6 +263,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color indexed="11"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="3">
@@ -158,7 +313,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -173,6 +328,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -196,6 +363,7 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff212529"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1266,7 +1434,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="12.6719" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.4609" style="1" customWidth="1"/>
+    <col min="2" max="6" width="12.6719" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1290,8 +1459,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" ht="54.8" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>6</v>
       </c>
       <c r="B2" t="s" s="3">
@@ -1300,103 +1469,103 @@
       <c r="C2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" t="s" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" ht="39.05" customHeight="1">
+      <c r="A3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="4">
-        <v>17</v>
+      <c r="F3" t="s" s="8">
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" t="s" s="3">
+      <c r="A4" t="s" s="6">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="C4" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="D4" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="E4" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="3">
+      <c r="F4" t="s" s="4">
         <v>22</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>23</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>נושא אש</t>
   </si>
@@ -233,6 +233,128 @@
   </si>
   <si>
     <t>זה לא משנה תעצור את זה אח שלי</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit</t>
+  </si>
+  <si>
+    <t>sed do eiusmod tempor incididunt ut labore</t>
+  </si>
+  <si>
+    <t>et dolore magna aliqua</t>
+  </si>
+  <si>
+    <t>Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat</t>
+  </si>
+  <si>
+    <t>Duis aute irure</t>
+  </si>
+  <si>
+    <t>dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint</t>
+  </si>
+  <si>
+    <t>במפגש משפחתי אחד, צעיר אחד פנה להוריו, דודיו וסבותיו ושאל: כיצד יכולתם לחיות בעבר, ללא:</t>
+  </si>
+  <si>
+    <t>טכנולוגיה
+אינטרנט
+מחשבים
+מזלט”ים
+ביטקוין
+טחפונים סלולריים
+פייסבוק
+טוויטר
+ללא…
+ללא…</t>
+  </si>
+  <si>
+    <t>הסבא ענה לו, ובכן ראה נכדי היקר,
+בדיוק כמו הדור שלך שחי היום:
+ללא תפילה
+ללא כבוד
+ללא רגש
+ללא בושה
+ללא כיבוד הזולת
+ללא אופי
+ללא כבוד עצמי
+ללא צניעות…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אנו שנולדו בין השנים 1930-1980, אנו מבורכים, חיינו הנם דוגמא חיה.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>אחרי ביה”ס 👈
+👈 עשינו שיעורים ויצאנו לרחוב לשחק!
+👈שיחקנו עם חברים אמיתיים, לא חברי אינטרנט…
+👈ידענו ליצור משחקים משלנו ולשחק בהם.
+👈הורינו לא היו עשירים, אך העניקו לנו אהבה ולא חפצים ארציים.
+👈מעולם לא היו לנו טלפונים סלולריים, DVD, פלייסטיישן, XBOX, משחקי ווידאו, מחשבים אישיים, אינטרנט… אך היו לנו חברים אמיתיים.
+👈בני המשפחה גרו קרוב כדי ליהנות מהזמן בקרבת המשפחה.
+👈אמנם הופענו בתצלומים בשחור לבן, אך תוכל למצוא הרבה זכרונות צבעוניים בתמונות הללו.
+👈אנו דור ייחודי ואחרון שהקשיב להוריו…
+👈 וגם הראשונים שנאלצים להקשיב לילדינו…</t>
+  </si>
+  <si>
+    <t>אנו גירסה מוגבלת בזמן ובמקום. נצל את היותנו והערך אותנו, למד מאיתנו והעבר זאת לחבריך.
+פוסט ספרדי שתורגם לעברית</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">עם קצת מעל 130 IQ אני חושב שיש לי את היכולת הקוגנטיבית להבין הומור אבסורדיסטי, ולהבחין בטונים אקזיסטנציאליזטים או ניהיליסטים.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">אז לא, אני לא “פשוט לא מבין את הסדרה”. ריק ומורטי היא פשוט סדרה בינונית, פשטנית, עם מוטיב אחד ברור וחוזר, שאין בו שום עומק מיוחד, וההומור בה אבסורדי ומהנה אבל ממש לא גאוני ומתוחכם.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">כל העומק הפילוסופי שאנשים רואים בה זה רצון כנה להאמין שזה מצחיק כי זה חכם ולא שזה מצחיק, על אף שזה לא מאוד חכם.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color indexed="11"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t xml:space="preserve">בחיי, נמאס לי לשמוע על זה. אם משברים אקזיסטנציאליסטים וניהיליזם זה באמת מה שאתם מחפים, תקראו ספרות רוסית פור פאק סייק.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>למען ההגינות, יש צורך במנת משכל גבוהה ביותר בכדי להבין את ריק ומורטי</t>
+  </si>
+  <si>
+    <t>ההומור מעודן בטירוף, וללא הבנה חזקה של פיזיקה תאורטית הבדיחות שם פשוט תחלופנה מעל ראשו של הצופה הטיפוסי</t>
   </si>
 </sst>
 </file>
@@ -242,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -268,6 +390,11 @@
       <sz val="16"/>
       <color indexed="11"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color indexed="12"/>
+      <name val="Georgia"/>
     </font>
   </fonts>
   <fills count="3">
@@ -313,7 +440,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -336,9 +463,18 @@
       <alignment horizontal="right" vertical="bottom" wrapText="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -364,6 +500,7 @@
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff212529"/>
+      <rgbColor rgb="ff7b8898"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1434,7 +1571,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6667" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="37.4609" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.5" style="1" customWidth="1"/>
     <col min="2" max="6" width="12.6719" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.6719" style="1" customWidth="1"/>
   </cols>
@@ -1475,7 +1612,7 @@
       <c r="E2" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="F2" t="s" s="8">
+      <c r="F2" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1483,7 +1620,7 @@
       <c r="A3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" t="s" s="7">
         <v>13</v>
       </c>
       <c r="C3" t="s" s="6">
@@ -1495,7 +1632,7 @@
       <c r="E3" t="s" s="6">
         <v>16</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F3" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1515,57 +1652,93 @@
       <c r="E4" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="F4" t="s" s="4">
+      <c r="F4" t="s" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" t="s" s="4">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s" s="4">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" t="s" s="4">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s" s="10">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s" s="7">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s" s="10">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="10">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/example.xlsx
+++ b/example.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>נושא אש</t>
   </si>
@@ -355,6 +355,24 @@
   </si>
   <si>
     <t>ההומור מעודן בטירוף, וללא הבנה חזקה של פיזיקה תאורטית הבדיחות שם פשוט תחלופנה מעל ראשו של הצופה הטיפוסי</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> גם התפיסה הניהיליסטית של ריק, שקשורה באופן הדוק לאופיו – הפילוסופיה האישית שלו קיבלה השראה מאוד עמוקה מספרותה של “נרדוניה ווליה”, לדוגמה</t>
+  </si>
+  <si>
+    <t>המעריצים מבינים את הדברים הללו</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> להם את היכולת האינטלקטואלית להעריך באמת את עומק הבדיחות, להבין שהן לא סתם מצחיקות – הן אומרות משהו עמוק על החיים</t>
+  </si>
+  <si>
+    <t>כתוצאה מכך, אנשים שלא אוהבים את ריק ומורטי הם באמת אידיוטים</t>
+  </si>
+  <si>
+    <t>ברור שהם לא יעריכו, לדוגמה, את ההומור בביטוי הקליט האקזיסטנציאלי של ריק “וואבה לאבה דאב דאב”, שהוא בעצם רפרנס נסתר ל”אבות ובנים” של טורגנייב</t>
+  </si>
+  <si>
+    <t>אני מחייך כעת רק מלדמיין את הנבערים המשתאים מגרדים בראשם בבלבול אל מול גאונותו של דן הרמון הנפרשת מולם על מסכי הטלוויזיה. אילו כסילים… כמה אני מרחם עליהם. 😂 וכן, דרך אגב, אכן יש לי קעקוע של ריק ומורטי. ולא, אתם לא יכולים לראות אותו. הוא לעיני הבחורות בלבד – וגם הן צריכות להוכיח שהן בטווח 5 נקודות אייקיו משלי (עדיף כלפי מטה) לפני כן</t>
   </si>
 </sst>
 </file>
@@ -1717,12 +1735,24 @@
       </c>
     </row>
     <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" t="s" s="4">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s" s="4">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s" s="4">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s" s="4">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s" s="4">
+        <v>46</v>
+      </c>
     </row>
     <row r="9" ht="13.65" customHeight="1">
       <c r="A9" s="12"/>
